--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H2">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I2">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J2">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N2">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q2">
-        <v>171.7224636614084</v>
+        <v>15.61570181052</v>
       </c>
       <c r="R2">
-        <v>1545.502172952675</v>
+        <v>140.54131629468</v>
       </c>
       <c r="S2">
-        <v>0.446520530185193</v>
+        <v>0.2331466356255494</v>
       </c>
       <c r="T2">
-        <v>0.4465205301851931</v>
+        <v>0.2331466356255494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H3">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I3">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J3">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>4.395834</v>
       </c>
       <c r="O3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q3">
-        <v>85.50882529454999</v>
+        <v>27.80380390419</v>
       </c>
       <c r="R3">
-        <v>769.57942765095</v>
+        <v>250.23423513771</v>
       </c>
       <c r="S3">
-        <v>0.2223439216509221</v>
+        <v>0.4151182839241569</v>
       </c>
       <c r="T3">
-        <v>0.2223439216509222</v>
+        <v>0.4151182839241569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H4">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I4">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J4">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N4">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q4">
-        <v>121.59662403455</v>
+        <v>20.55888111393</v>
       </c>
       <c r="R4">
-        <v>1094.36961631095</v>
+        <v>185.02993002537</v>
       </c>
       <c r="S4">
-        <v>0.3161810509526179</v>
+        <v>0.3069496345472808</v>
       </c>
       <c r="T4">
-        <v>0.3161810509526181</v>
+        <v>0.3069496345472808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.936176</v>
       </c>
       <c r="I5">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J5">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N5">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O5">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P5">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q5">
-        <v>0.9182743385084445</v>
+        <v>0.2568109681635556</v>
       </c>
       <c r="R5">
-        <v>8.264469046576</v>
+        <v>2.311298713472</v>
       </c>
       <c r="S5">
-        <v>0.002387738538941046</v>
+        <v>0.003834256951470261</v>
       </c>
       <c r="T5">
-        <v>0.002387738538941046</v>
+        <v>0.003834256951470261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.936176</v>
       </c>
       <c r="I6">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J6">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>4.395834</v>
       </c>
       <c r="O6">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P6">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q6">
         <v>0.4572526989759999</v>
@@ -818,10 +818,10 @@
         <v>4.115274290784</v>
       </c>
       <c r="S6">
-        <v>0.001188969184474018</v>
+        <v>0.0068269060008009</v>
       </c>
       <c r="T6">
-        <v>0.001188969184474019</v>
+        <v>0.006826906000800901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.936176</v>
       </c>
       <c r="I7">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J7">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N7">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O7">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P7">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q7">
-        <v>0.6502297784426666</v>
+        <v>0.3381049553386666</v>
       </c>
       <c r="R7">
-        <v>5.852068005984</v>
+        <v>3.042944598048</v>
       </c>
       <c r="S7">
-        <v>0.001690756929651884</v>
+        <v>0.00504799808436607</v>
       </c>
       <c r="T7">
-        <v>0.001690756929651885</v>
+        <v>0.005047998084366071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H8">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I8">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J8">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N8">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O8">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P8">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q8">
-        <v>1.688735283550778</v>
+        <v>0.4753346693511111</v>
       </c>
       <c r="R8">
-        <v>15.198617551957</v>
+        <v>4.278012024160001</v>
       </c>
       <c r="S8">
-        <v>0.004391125995259038</v>
+        <v>0.007096874690622959</v>
       </c>
       <c r="T8">
-        <v>0.004391125995259038</v>
+        <v>0.007096874690622958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H9">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I9">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J9">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>4.395834</v>
       </c>
       <c r="O9">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P9">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q9">
-        <v>0.8409020418819999</v>
+        <v>0.8463348042799999</v>
       </c>
       <c r="R9">
-        <v>7.568118376938</v>
+        <v>7.617013238519999</v>
       </c>
       <c r="S9">
-        <v>0.002186551587771941</v>
+        <v>0.01263600666975845</v>
       </c>
       <c r="T9">
-        <v>0.002186551587771942</v>
+        <v>0.01263600666975845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H10">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I10">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J10">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N10">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O10">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P10">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q10">
-        <v>1.195792938148666</v>
+        <v>0.6258027384933332</v>
       </c>
       <c r="R10">
-        <v>10.762136443338</v>
+        <v>5.632224646439999</v>
       </c>
       <c r="S10">
-        <v>0.003109354975168851</v>
+        <v>0.009343403505994429</v>
       </c>
       <c r="T10">
-        <v>0.003109354975168851</v>
+        <v>0.009343403505994429</v>
       </c>
     </row>
   </sheetData>
